--- a/parola/out/Assignee Sectors and Industries.xlsx
+++ b/parola/out/Assignee Sectors and Industries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\patent-analytics-tool\parola\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B5C1D1-1F96-4D72-A32C-0374486285FD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C716201-A92E-4FA8-96EA-3D031D66A4E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8140" xr2:uid="{659DFEA8-1762-49B2-B540-58B2D0344627}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="690">
   <si>
     <t>International Business Machines Corp.</t>
   </si>
@@ -546,9 +546,6 @@
     <t>Sanofi</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>Whirlpool Corp.</t>
   </si>
   <si>
@@ -951,9 +948,6 @@
     <t>Globus Medical Inc.</t>
   </si>
   <si>
-    <t>Healthcare/Technology</t>
-  </si>
-  <si>
     <t>Medical Technology</t>
   </si>
   <si>
@@ -2101,6 +2095,9 @@
   </si>
   <si>
     <t>JFE Steel</t>
+  </si>
+  <si>
+    <t>Health Care/Technology</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2481,7 @@
   <dimension ref="A1:F303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2497,22 +2494,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2529,10 +2526,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" t="s">
         <v>207</v>
-      </c>
-      <c r="F2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2549,10 +2546,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2569,10 +2566,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2589,10 +2586,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2609,10 +2606,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2629,10 +2626,10 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2649,10 +2646,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2669,10 +2666,10 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -2689,10 +2686,10 @@
         <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -2709,10 +2706,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -2729,10 +2726,10 @@
         <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -2749,10 +2746,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2769,10 +2766,10 @@
         <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -2789,10 +2786,10 @@
         <v>26</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -2809,10 +2806,10 @@
         <v>29</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -2829,10 +2826,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -2849,10 +2846,10 @@
         <v>26</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -2869,10 +2866,10 @@
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -2889,10 +2886,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -2909,10 +2906,10 @@
         <v>36</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -2929,10 +2926,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -2949,10 +2946,10 @@
         <v>39</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -2969,10 +2966,10 @@
         <v>41</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -2989,10 +2986,10 @@
         <v>36</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -3009,10 +3006,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -3029,10 +3026,10 @@
         <v>15</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -3049,10 +3046,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -3069,10 +3066,10 @@
         <v>4</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -3089,10 +3086,10 @@
         <v>26</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -3109,10 +3106,10 @@
         <v>39</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -3129,10 +3126,10 @@
         <v>41</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -3149,10 +3146,10 @@
         <v>4</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -3189,10 +3186,10 @@
         <v>57</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -3209,10 +3206,10 @@
         <v>4</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -3229,10 +3226,10 @@
         <v>26</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -3249,10 +3246,10 @@
         <v>61</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -3269,10 +3266,10 @@
         <v>63</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -3289,10 +3286,10 @@
         <v>4</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -3300,7 +3297,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>1</v>
@@ -3309,10 +3306,10 @@
         <v>6</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -3329,10 +3326,10 @@
         <v>6</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -3349,10 +3346,10 @@
         <v>6</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -3369,10 +3366,10 @@
         <v>26</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -3389,10 +3386,10 @@
         <v>26</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -3409,10 +3406,10 @@
         <v>70</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -3429,10 +3426,10 @@
         <v>63</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -3449,10 +3446,10 @@
         <v>6</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -3469,10 +3466,10 @@
         <v>6</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -3489,10 +3486,10 @@
         <v>75</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -3509,10 +3506,10 @@
         <v>19</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -3529,10 +3526,10 @@
         <v>78</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -3549,10 +3546,10 @@
         <v>39</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -3569,10 +3566,10 @@
         <v>70</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -3589,10 +3586,10 @@
         <v>4</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -3609,10 +3606,10 @@
         <v>4</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -3629,10 +3626,10 @@
         <v>78</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -3649,10 +3646,10 @@
         <v>4</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -3669,10 +3666,10 @@
         <v>6</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -3689,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -3709,10 +3706,10 @@
         <v>11</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -3729,10 +3726,10 @@
         <v>89</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -3749,10 +3746,10 @@
         <v>4</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -3769,10 +3766,10 @@
         <v>2</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -3789,10 +3786,10 @@
         <v>4</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -3809,10 +3806,10 @@
         <v>9</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -3829,10 +3826,10 @@
         <v>95</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -3849,10 +3846,10 @@
         <v>6</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -3869,10 +3866,10 @@
         <v>6</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -3889,10 +3886,10 @@
         <v>99</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -3909,10 +3906,10 @@
         <v>6</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -3929,10 +3926,10 @@
         <v>102</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -3969,10 +3966,10 @@
         <v>4</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -3989,10 +3986,10 @@
         <v>70</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -4009,10 +4006,10 @@
         <v>4</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -4029,10 +4026,10 @@
         <v>39</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -4049,10 +4046,10 @@
         <v>110</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -4069,10 +4066,10 @@
         <v>19</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -4089,10 +4086,10 @@
         <v>70</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -4109,10 +4106,10 @@
         <v>2</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -4129,10 +4126,10 @@
         <v>19</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -4169,10 +4166,10 @@
         <v>4</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -4189,10 +4186,10 @@
         <v>118</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -4209,10 +4206,10 @@
         <v>89</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -4229,10 +4226,10 @@
         <v>75</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -4252,7 +4249,7 @@
         <v>121</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -4269,10 +4266,10 @@
         <v>70</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -4289,10 +4286,10 @@
         <v>126</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -4309,10 +4306,10 @@
         <v>6</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -4329,10 +4326,10 @@
         <v>118</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -4349,10 +4346,10 @@
         <v>75</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -4369,10 +4366,10 @@
         <v>39</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -4389,10 +4386,10 @@
         <v>6</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -4409,10 +4406,10 @@
         <v>6</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -4429,10 +4426,10 @@
         <v>95</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -4449,10 +4446,10 @@
         <v>4</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -4469,10 +4466,10 @@
         <v>39</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -4489,10 +4486,10 @@
         <v>137</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -4509,10 +4506,10 @@
         <v>26</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -4529,10 +4526,10 @@
         <v>26</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -4549,10 +4546,10 @@
         <v>19</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -4589,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -4609,10 +4606,10 @@
         <v>61</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -4629,10 +4626,10 @@
         <v>39</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -4649,10 +4646,10 @@
         <v>118</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -4669,10 +4666,10 @@
         <v>147</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -4689,10 +4686,10 @@
         <v>9</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -4709,10 +4706,10 @@
         <v>19</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -4729,10 +4726,10 @@
         <v>9</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -4749,10 +4746,10 @@
         <v>54</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -4769,10 +4766,10 @@
         <v>95</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -4789,10 +4786,10 @@
         <v>154</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -4809,10 +4806,10 @@
         <v>156</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -4829,10 +4826,10 @@
         <v>123</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -4849,10 +4846,10 @@
         <v>159</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -4909,10 +4906,10 @@
         <v>26</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -4929,10 +4926,10 @@
         <v>6</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -4949,10 +4946,10 @@
         <v>165</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -4969,10 +4966,10 @@
         <v>118</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -4989,10 +4986,10 @@
         <v>126</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -5009,10 +5006,10 @@
         <v>169</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -5029,10 +5026,10 @@
         <v>70</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -5043,16 +5040,16 @@
         <v>171</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -5060,19 +5057,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -5080,7 +5077,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>1</v>
@@ -5089,10 +5086,10 @@
         <v>4</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -5100,19 +5097,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -5120,7 +5117,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>1</v>
@@ -5129,10 +5126,10 @@
         <v>6</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -5140,7 +5137,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>17</v>
@@ -5149,10 +5146,10 @@
         <v>99</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -5160,7 +5157,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>1</v>
@@ -5169,10 +5166,10 @@
         <v>70</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -5180,7 +5177,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>17</v>
@@ -5189,10 +5186,10 @@
         <v>61</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -5200,7 +5197,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>1</v>
@@ -5209,10 +5206,10 @@
         <v>15</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -5220,7 +5217,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>35</v>
@@ -5229,10 +5226,10 @@
         <v>54</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -5240,7 +5237,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>1</v>
@@ -5249,10 +5246,10 @@
         <v>63</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -5260,7 +5257,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>13</v>
@@ -5269,10 +5266,10 @@
         <v>118</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -5280,7 +5277,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>1</v>
@@ -5289,10 +5286,10 @@
         <v>118</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -5300,7 +5297,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>1</v>
@@ -5309,10 +5306,10 @@
         <v>9</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -5320,7 +5317,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>35</v>
@@ -5329,10 +5326,10 @@
         <v>95</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -5340,19 +5337,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D143" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="E143" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -5360,7 +5357,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>1</v>
@@ -5369,10 +5366,10 @@
         <v>70</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -5380,7 +5377,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>1</v>
@@ -5389,10 +5386,10 @@
         <v>6</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -5400,7 +5397,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>8</v>
@@ -5409,10 +5406,10 @@
         <v>165</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -5420,7 +5417,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>1</v>
@@ -5429,10 +5426,10 @@
         <v>118</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -5440,19 +5437,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -5460,7 +5457,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>48</v>
@@ -5469,10 +5466,10 @@
         <v>41</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -5480,7 +5477,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>1</v>
@@ -5489,10 +5486,10 @@
         <v>6</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -5500,19 +5497,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -5520,7 +5517,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>1</v>
@@ -5529,10 +5526,10 @@
         <v>6</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -5540,7 +5537,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>48</v>
@@ -5549,10 +5546,10 @@
         <v>26</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -5560,19 +5557,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -5580,7 +5577,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>110</v>
@@ -5589,10 +5586,10 @@
         <v>110</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -5600,19 +5597,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="D156" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D156" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="E156" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -5620,19 +5617,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="E157" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -5640,7 +5637,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>1</v>
@@ -5649,10 +5646,10 @@
         <v>19</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -5660,19 +5657,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -5680,7 +5677,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>1</v>
@@ -5689,10 +5686,10 @@
         <v>19</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -5700,7 +5697,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>17</v>
@@ -5709,10 +5706,10 @@
         <v>75</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -5720,19 +5717,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -5740,7 +5737,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>1</v>
@@ -5749,10 +5746,10 @@
         <v>6</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -5760,7 +5757,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>8</v>
@@ -5769,10 +5766,10 @@
         <v>165</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -5780,7 +5777,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>1</v>
@@ -5789,10 +5786,10 @@
         <v>6</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -5800,7 +5797,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>1</v>
@@ -5809,10 +5806,10 @@
         <v>19</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -5820,7 +5817,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>110</v>
@@ -5829,10 +5826,10 @@
         <v>110</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -5840,7 +5837,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>8</v>
@@ -5849,10 +5846,10 @@
         <v>165</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -5860,7 +5857,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>1</v>
@@ -5869,10 +5866,10 @@
         <v>6</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -5880,7 +5877,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>35</v>
@@ -5889,10 +5886,10 @@
         <v>54</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -5900,19 +5897,19 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -5920,7 +5917,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>1</v>
@@ -5929,10 +5926,10 @@
         <v>9</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -5940,7 +5937,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>48</v>
@@ -5949,10 +5946,10 @@
         <v>41</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -5960,7 +5957,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>1</v>
@@ -5969,10 +5966,10 @@
         <v>4</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -5980,7 +5977,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>17</v>
@@ -5989,10 +5986,10 @@
         <v>75</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -6000,7 +5997,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>1</v>
@@ -6009,10 +6006,10 @@
         <v>6</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -6020,7 +6017,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>50</v>
@@ -6029,10 +6026,10 @@
         <v>39</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -6040,7 +6037,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>1</v>
@@ -6049,10 +6046,10 @@
         <v>70</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -6060,7 +6057,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>1</v>
@@ -6069,10 +6066,10 @@
         <v>9</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -6080,7 +6077,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>17</v>
@@ -6089,10 +6086,10 @@
         <v>70</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -6100,7 +6097,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>1</v>
@@ -6109,10 +6106,10 @@
         <v>4</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -6120,7 +6117,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>1</v>
@@ -6129,10 +6126,10 @@
         <v>11</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -6140,7 +6137,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>48</v>
@@ -6149,10 +6146,10 @@
         <v>26</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -6160,7 +6157,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>1</v>
@@ -6169,10 +6166,10 @@
         <v>75</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -6180,19 +6177,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -6200,7 +6197,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>35</v>
@@ -6209,10 +6206,10 @@
         <v>36</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -6220,7 +6217,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>1</v>
@@ -6229,10 +6226,10 @@
         <v>118</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -6240,7 +6237,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>1</v>
@@ -6249,10 +6246,10 @@
         <v>6</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -6260,7 +6257,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>48</v>
@@ -6269,10 +6266,10 @@
         <v>61</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -6280,19 +6277,19 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="E190" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -6300,19 +6297,19 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -6320,7 +6317,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>17</v>
@@ -6329,10 +6326,10 @@
         <v>9</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -6340,7 +6337,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>48</v>
@@ -6349,10 +6346,10 @@
         <v>41</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
@@ -6360,19 +6357,19 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -6380,19 +6377,19 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -6400,7 +6397,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>110</v>
@@ -6409,10 +6406,10 @@
         <v>110</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -6420,19 +6417,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -6440,7 +6437,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>1</v>
@@ -6449,10 +6446,10 @@
         <v>15</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -6460,19 +6457,19 @@
         <v>198</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -6480,19 +6477,19 @@
         <v>199</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -6500,19 +6497,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -6520,7 +6517,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>8</v>
@@ -6529,10 +6526,10 @@
         <v>165</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -6540,7 +6537,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>1</v>
@@ -6549,10 +6546,10 @@
         <v>118</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -6560,19 +6557,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -6580,19 +6577,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -6600,7 +6597,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>110</v>
@@ -6609,10 +6606,10 @@
         <v>110</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -6620,7 +6617,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>48</v>
@@ -6629,10 +6626,10 @@
         <v>26</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
@@ -6640,7 +6637,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>110</v>
@@ -6649,10 +6646,10 @@
         <v>110</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
@@ -6660,7 +6657,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>108</v>
@@ -6669,10 +6666,10 @@
         <v>89</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
@@ -6680,7 +6677,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>48</v>
@@ -6689,10 +6686,10 @@
         <v>41</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
@@ -6700,19 +6697,19 @@
         <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -6720,7 +6717,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>1</v>
@@ -6729,10 +6726,10 @@
         <v>70</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
@@ -6740,7 +6737,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>110</v>
@@ -6749,10 +6746,10 @@
         <v>123</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -6760,19 +6757,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -6780,7 +6777,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>1</v>
@@ -6789,10 +6786,10 @@
         <v>6</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
@@ -6800,19 +6797,19 @@
         <v>215</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -6820,19 +6817,19 @@
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -6840,19 +6837,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
@@ -6860,19 +6857,19 @@
         <v>218</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
@@ -6880,7 +6877,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>1</v>
@@ -6889,10 +6886,10 @@
         <v>6</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
@@ -6900,7 +6897,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>110</v>
@@ -6909,10 +6906,10 @@
         <v>110</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -6920,19 +6917,19 @@
         <v>221</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -6940,7 +6937,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>1</v>
@@ -6949,10 +6946,10 @@
         <v>41</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
@@ -6960,19 +6957,19 @@
         <v>223</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
@@ -6980,19 +6977,19 @@
         <v>224</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
@@ -7000,19 +6997,19 @@
         <v>225</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -7020,7 +7017,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>17</v>
@@ -7029,10 +7026,10 @@
         <v>9</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
@@ -7040,7 +7037,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>17</v>
@@ -7049,10 +7046,10 @@
         <v>61</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
@@ -7060,7 +7057,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>1</v>
@@ -7069,10 +7066,10 @@
         <v>6</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
@@ -7080,19 +7077,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
@@ -7100,7 +7097,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>110</v>
@@ -7109,10 +7106,10 @@
         <v>110</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
@@ -7120,19 +7117,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
@@ -7140,19 +7137,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D233" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C233" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="E233" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
@@ -7160,19 +7157,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
@@ -7180,19 +7177,19 @@
         <v>234</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -7200,19 +7197,19 @@
         <v>235</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
@@ -7220,7 +7217,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>1</v>
@@ -7229,10 +7226,10 @@
         <v>4</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
@@ -7240,19 +7237,19 @@
         <v>237</v>
       </c>
       <c r="B238" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D238" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C238" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="E238" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
@@ -7260,19 +7257,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
@@ -7280,19 +7277,19 @@
         <v>239</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -7300,19 +7297,19 @@
         <v>240</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
@@ -7320,19 +7317,19 @@
         <v>241</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -7340,19 +7337,19 @@
         <v>242</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
@@ -7360,19 +7357,19 @@
         <v>243</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
@@ -7380,19 +7377,19 @@
         <v>244</v>
       </c>
       <c r="B245" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D245" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C245" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="E245" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
@@ -7400,19 +7397,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
@@ -7420,19 +7417,19 @@
         <v>246</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
@@ -7440,19 +7437,19 @@
         <v>247</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
@@ -7460,19 +7457,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
@@ -7480,7 +7477,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>122</v>
@@ -7489,10 +7486,10 @@
         <v>122</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
@@ -7500,7 +7497,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>17</v>
@@ -7509,10 +7506,10 @@
         <v>61</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
@@ -7520,19 +7517,19 @@
         <v>251</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
@@ -7540,19 +7537,19 @@
         <v>252</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
@@ -7560,19 +7557,19 @@
         <v>253</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
@@ -7580,19 +7577,19 @@
         <v>254</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
@@ -7600,7 +7597,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>1</v>
@@ -7609,10 +7606,10 @@
         <v>19</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
@@ -7620,7 +7617,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>1</v>
@@ -7629,10 +7626,10 @@
         <v>6</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
@@ -7640,19 +7637,19 @@
         <v>257</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
@@ -7660,7 +7657,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>1</v>
@@ -7669,10 +7666,10 @@
         <v>6</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
@@ -7680,19 +7677,19 @@
         <v>259</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
@@ -7700,7 +7697,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>108</v>
@@ -7709,10 +7706,10 @@
         <v>8</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
@@ -7720,19 +7717,19 @@
         <v>261</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
@@ -7740,19 +7737,19 @@
         <v>262</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
@@ -7760,19 +7757,19 @@
         <v>263</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
@@ -7780,7 +7777,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>1</v>
@@ -7789,10 +7786,10 @@
         <v>6</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
@@ -7800,19 +7797,19 @@
         <v>265</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
@@ -7820,19 +7817,19 @@
         <v>266</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
@@ -7840,19 +7837,19 @@
         <v>267</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
@@ -7860,7 +7857,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>35</v>
@@ -7869,10 +7866,10 @@
         <v>122</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
@@ -7880,7 +7877,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>28</v>
@@ -7889,10 +7886,10 @@
         <v>29</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
@@ -7900,19 +7897,19 @@
         <v>270</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
@@ -7920,19 +7917,19 @@
         <v>271</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D272" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
@@ -7940,7 +7937,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>1</v>
@@ -7949,10 +7946,10 @@
         <v>19</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
@@ -7960,19 +7957,19 @@
         <v>273</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
@@ -7980,7 +7977,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>48</v>
@@ -7989,10 +7986,10 @@
         <v>26</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
@@ -8000,7 +7997,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>24</v>
@@ -8009,10 +8006,10 @@
         <v>89</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
@@ -8020,7 +8017,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>8</v>
@@ -8029,10 +8026,10 @@
         <v>165</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
@@ -8040,7 +8037,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>1</v>
@@ -8049,10 +8046,10 @@
         <v>15</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
@@ -8060,19 +8057,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
@@ -8080,7 +8077,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>110</v>
@@ -8089,10 +8086,10 @@
         <v>110</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
@@ -8100,7 +8097,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>50</v>
@@ -8109,10 +8106,10 @@
         <v>39</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
@@ -8120,19 +8117,19 @@
         <v>281</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D282" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
@@ -8140,7 +8137,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>122</v>
@@ -8149,10 +8146,10 @@
         <v>123</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
@@ -8160,7 +8157,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>1</v>
@@ -8169,10 +8166,10 @@
         <v>6</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
@@ -8180,7 +8177,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>17</v>
@@ -8189,10 +8186,10 @@
         <v>9</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
@@ -8200,7 +8197,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>1</v>
@@ -8209,10 +8206,10 @@
         <v>6</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
@@ -8220,7 +8217,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>1</v>
@@ -8229,10 +8226,10 @@
         <v>15</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
@@ -8240,7 +8237,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>50</v>
@@ -8249,10 +8246,10 @@
         <v>39</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
@@ -8260,19 +8257,19 @@
         <v>288</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
@@ -8280,7 +8277,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>17</v>
@@ -8289,10 +8286,10 @@
         <v>61</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
@@ -8300,7 +8297,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>1</v>
@@ -8309,10 +8306,10 @@
         <v>6</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
@@ -8320,7 +8317,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>1</v>
@@ -8329,10 +8326,10 @@
         <v>6</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
@@ -8340,19 +8337,19 @@
         <v>292</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
@@ -8360,19 +8357,19 @@
         <v>293</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E294" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
@@ -8380,7 +8377,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>122</v>
@@ -8389,10 +8386,10 @@
         <v>122</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
@@ -8400,19 +8397,19 @@
         <v>295</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E296" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
@@ -8420,19 +8417,19 @@
         <v>296</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E297" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F297" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
@@ -8440,7 +8437,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>110</v>
@@ -8449,10 +8446,10 @@
         <v>110</v>
       </c>
       <c r="E298" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
@@ -8460,19 +8457,19 @@
         <v>298</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E299" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
@@ -8480,19 +8477,19 @@
         <v>299</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
@@ -8500,19 +8497,19 @@
         <v>300</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E301" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
@@ -8520,19 +8517,19 @@
         <v>301</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E302" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
@@ -8540,19 +8537,19 @@
         <v>302</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D303" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E303" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
